--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\ORA Errors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBCCFC7-014E-41CE-9F7A-F16B1FC5F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,6 +417,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45969</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8EE3E5C-559C-4768-9292-BA7071616FBC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,6 +433,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8EE3E5C-559C-4768-9292-BA7071616FBC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF7C946-0EFF-4B0B-9184-0B8E7184ED89}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,6 +441,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF7C946-0EFF-4B0B-9184-0B8E7184ED89}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,22 +433,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>45971</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>45973</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC4889F-7B42-46F1-869E-DC8F8C84EC67}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,6 +433,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45974</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC4889F-7B42-46F1-869E-DC8F8C84EC67}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B680A47-B347-48F6-B46A-2D896850F5B1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45967</v>
       </c>
@@ -377,7 +377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45966</v>
       </c>
@@ -385,7 +385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45965</v>
       </c>
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45964</v>
       </c>
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45963</v>
       </c>
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45962</v>
       </c>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45969</v>
       </c>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45968</v>
       </c>
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45971</v>
       </c>
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45973</v>
       </c>
@@ -449,12 +449,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45974</v>
       </c>
       <c r="B12">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B680A47-B347-48F6-B46A-2D896850F5B1}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC4108A-A5D4-4138-B6D1-6B7E09497D5F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +465,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC4108A-A5D4-4138-B6D1-6B7E09497D5F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE994D0F-ECF9-497B-947A-CB0F7C91CFC7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45967</v>
       </c>
@@ -377,7 +377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45966</v>
       </c>
@@ -385,7 +385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45965</v>
       </c>
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45964</v>
       </c>
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45963</v>
       </c>
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45962</v>
       </c>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45969</v>
       </c>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45968</v>
       </c>
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45971</v>
       </c>
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45973</v>
       </c>
@@ -449,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45974</v>
       </c>
@@ -457,7 +457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45975</v>
       </c>
@@ -465,12 +465,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45978</v>
       </c>
       <c r="B14">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE994D0F-ECF9-497B-947A-CB0F7C91CFC7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87FE7E02-CC18-478B-9D0C-9F7A20F82988}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45967</v>
       </c>
@@ -377,7 +377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45966</v>
       </c>
@@ -385,7 +385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45965</v>
       </c>
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45964</v>
       </c>
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45963</v>
       </c>
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45962</v>
       </c>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45969</v>
       </c>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45968</v>
       </c>
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45971</v>
       </c>
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45973</v>
       </c>
@@ -449,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45974</v>
       </c>
@@ -457,7 +457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45975</v>
       </c>
@@ -465,7 +465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45978</v>
       </c>
@@ -473,12 +473,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45979</v>
       </c>
       <c r="B15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87FE7E02-CC18-478B-9D0C-9F7A20F82988}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6EC19A-1721-4750-AFB8-7B933AD319B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45967</v>
       </c>
@@ -377,7 +377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45966</v>
       </c>
@@ -385,7 +385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45965</v>
       </c>
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45964</v>
       </c>
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45963</v>
       </c>
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45962</v>
       </c>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45969</v>
       </c>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45968</v>
       </c>
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45971</v>
       </c>
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45973</v>
       </c>
@@ -449,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45974</v>
       </c>
@@ -457,7 +457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45975</v>
       </c>
@@ -465,7 +465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45978</v>
       </c>
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45979</v>
       </c>
@@ -481,12 +481,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45980</v>
       </c>
       <c r="B16">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6EC19A-1721-4750-AFB8-7B933AD319B4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CEDEDEC-119A-4F07-B76D-01113CC61F65}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,10 +491,66 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45988</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>45981</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CEDEDEC-119A-4F07-B76D-01113CC61F65}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97F6F985-F677-4B1A-855D-B845A7E8D357}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,6 +553,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97F6F985-F677-4B1A-855D-B845A7E8D357}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D69AAB-D66F-431A-92EF-8042B7A132C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,6 +561,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D69AAB-D66F-431A-92EF-8042B7A132C3}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33AD8533-BBC4-4911-98C1-C012C7C544EA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B27"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,6 +577,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33AD8533-BBC4-4911-98C1-C012C7C544EA}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ACFD55F-00EF-4A54-851A-FAF2F68713DA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="A29" sqref="A29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,6 +585,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ACFD55F-00EF-4A54-851A-FAF2F68713DA}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4F96D9-57F2-4C6A-9FD3-1652A8551C8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B30"/>
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,6 +601,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4F96D9-57F2-4C6A-9FD3-1652A8551C8C}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D9B09C-1935-4492-AF8A-D3FCA28A358F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,6 +609,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D9B09C-1935-4492-AF8A-D3FCA28A358F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC89DB6-961C-43AD-A6AC-E55ABF6C39B1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,6 +617,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC89DB6-961C-43AD-A6AC-E55ABF6C39B1}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB2BD39-FC82-41C7-8174-C0DA2B2042A0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,6 +625,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB2BD39-FC82-41C7-8174-C0DA2B2042A0}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAE8B9F-FB2E-4ED0-ADCB-E219A6A17419}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,6 +633,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>46006</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAE8B9F-FB2E-4ED0-ADCB-E219A6A17419}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFBC8373-D3CB-43D0-BF77-72423BF579DF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B35"/>
+      <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,6 +641,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFBC8373-D3CB-43D0-BF77-72423BF579DF}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE979911-6766-4E24-B31D-B02E1CE440E1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B36"/>
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,6 +649,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE979911-6766-4E24-B31D-B02E1CE440E1}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84576521-CC48-46F4-B283-23F3551F7BDC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,9 +651,49 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
+        <v>46011</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>46012</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>46014</v>
+      </c>
+      <c r="B40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>46009</v>
       </c>
-      <c r="B37">
+      <c r="B42">
         <v>4</v>
       </c>
     </row>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84576521-CC48-46F4-B283-23F3551F7BDC}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27995D9-6878-4168-8837-A3E521498196}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B42"/>
+      <selection activeCell="A43" sqref="A43:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,6 +697,86 @@
         <v>4</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>46026</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>46025</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>46015</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>46016</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27995D9-6878-4168-8837-A3E521498196}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB26AFAA-CC65-450A-9E6A-A9A02206D45C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,6 +777,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB26AFAA-CC65-450A-9E6A-A9A02206D45C}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5E474C3-9404-40E4-B7D4-7FE943563E7B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B54"/>
+      <selection activeCell="A55" sqref="A55:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,6 +793,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5E474C3-9404-40E4-B7D4-7FE943563E7B}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5433EAAD-689C-4C66-8A14-825A7139129B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:B55"/>
+      <selection activeCell="A56" sqref="A56:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,6 +801,38 @@
         <v>8</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5433EAAD-689C-4C66-8A14-825A7139129B}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E483BB-59A6-44E7-A640-4F352A0B49D8}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:B56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,6 +833,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E483BB-59A6-44E7-A640-4F352A0B49D8}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A035A6BA-4061-4C74-B930-754DDB7D48F2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:B61"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,6 +849,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A035A6BA-4061-4C74-B930-754DDB7D48F2}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE7B26F-2EA3-40F8-A0B8-54EAC0EA98B5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="A65" sqref="A65:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,6 +873,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Batch.xlsx
+++ b/Monitoring Data Files/ORA Errors/Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE7B26F-2EA3-40F8-A0B8-54EAC0EA98B5}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{2374375A-B21A-4042-B860-BAFC7EDE5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4207C29-AB58-47B4-82AB-E9B6E2485601}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:B66"/>
+      <selection activeCell="A68" sqref="A68:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,6 +889,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>46050</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
